--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Wnt5a-Mcam.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Wnt5a-Mcam.xlsx
@@ -540,10 +540,10 @@
         <v>27.470878</v>
       </c>
       <c r="I2">
-        <v>0.969469463764299</v>
+        <v>0.9693716918425304</v>
       </c>
       <c r="J2">
-        <v>0.9694694637642989</v>
+        <v>0.9693716918425304</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>45.50099733333334</v>
+        <v>14.48297233333333</v>
       </c>
       <c r="N2">
-        <v>136.502992</v>
+        <v>43.448917</v>
       </c>
       <c r="O2">
-        <v>0.5190633550775298</v>
+        <v>0.2019336017030403</v>
       </c>
       <c r="P2">
-        <v>0.5190633550775298</v>
+        <v>0.2019336017030403</v>
       </c>
       <c r="Q2">
-        <v>416.6507822074419</v>
+        <v>132.6199886821252</v>
       </c>
       <c r="R2">
-        <v>3749.857039866977</v>
+        <v>1193.579898139126</v>
       </c>
       <c r="S2">
-        <v>0.5032160725067107</v>
+        <v>0.1957487171227319</v>
       </c>
       <c r="T2">
-        <v>0.5032160725067106</v>
+        <v>0.1957487171227319</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +602,10 @@
         <v>27.470878</v>
       </c>
       <c r="I3">
-        <v>0.969469463764299</v>
+        <v>0.9693716918425304</v>
       </c>
       <c r="J3">
-        <v>0.9694694637642989</v>
+        <v>0.9693716918425304</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,10 +620,10 @@
         <v>1.537166</v>
       </c>
       <c r="O3">
-        <v>0.005845194523436572</v>
+        <v>0.007144147385663391</v>
       </c>
       <c r="P3">
-        <v>0.005845194523436572</v>
+        <v>0.00714414738566339</v>
       </c>
       <c r="Q3">
         <v>4.691922183527557</v>
@@ -632,10 +632,10 @@
         <v>42.22729965174801</v>
       </c>
       <c r="S3">
-        <v>0.005666737600234071</v>
+        <v>0.006925334238012911</v>
       </c>
       <c r="T3">
-        <v>0.00566673760023407</v>
+        <v>0.006925334238012911</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,10 +664,10 @@
         <v>27.470878</v>
       </c>
       <c r="I4">
-        <v>0.969469463764299</v>
+        <v>0.9693716918425304</v>
       </c>
       <c r="J4">
-        <v>0.9694694637642989</v>
+        <v>0.9693716918425304</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>41.64642833333333</v>
+        <v>56.726097</v>
       </c>
       <c r="N4">
-        <v>124.939285</v>
+        <v>170.178291</v>
       </c>
       <c r="O4">
-        <v>0.4750914503990336</v>
+        <v>0.7909222509112964</v>
       </c>
       <c r="P4">
-        <v>0.4750914503990337</v>
+        <v>0.7909222509112963</v>
       </c>
       <c r="Q4">
-        <v>381.3546506269145</v>
+        <v>519.4385633677221</v>
       </c>
       <c r="R4">
-        <v>3432.19185564223</v>
+        <v>4674.947070309498</v>
       </c>
       <c r="S4">
-        <v>0.4605866536573542</v>
+        <v>0.7666976404817857</v>
       </c>
       <c r="T4">
-        <v>0.4605866536573542</v>
+        <v>0.7666976404817856</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.288371</v>
+        <v>0.2893236666666667</v>
       </c>
       <c r="H5">
-        <v>0.865113</v>
+        <v>0.867971</v>
       </c>
       <c r="I5">
-        <v>0.03053053623570109</v>
+        <v>0.03062830815746963</v>
       </c>
       <c r="J5">
-        <v>0.03053053623570109</v>
+        <v>0.03062830815746962</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>45.50099733333334</v>
+        <v>14.48297233333333</v>
       </c>
       <c r="N5">
-        <v>136.502992</v>
+        <v>43.448917</v>
       </c>
       <c r="O5">
-        <v>0.5190633550775298</v>
+        <v>0.2019336017030403</v>
       </c>
       <c r="P5">
-        <v>0.5190633550775298</v>
+        <v>0.2019336017030403</v>
       </c>
       <c r="Q5">
-        <v>13.12116810201067</v>
+        <v>4.19026665971189</v>
       </c>
       <c r="R5">
-        <v>118.090512918096</v>
+        <v>37.71239993740701</v>
       </c>
       <c r="S5">
-        <v>0.0158472825708191</v>
+        <v>0.006184884580308452</v>
       </c>
       <c r="T5">
-        <v>0.0158472825708191</v>
+        <v>0.006184884580308451</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.288371</v>
+        <v>0.2893236666666667</v>
       </c>
       <c r="H6">
-        <v>0.865113</v>
+        <v>0.867971</v>
       </c>
       <c r="I6">
-        <v>0.03053053623570109</v>
+        <v>0.03062830815746963</v>
       </c>
       <c r="J6">
-        <v>0.03053053623570109</v>
+        <v>0.03062830815746962</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,22 +806,22 @@
         <v>1.537166</v>
       </c>
       <c r="O6">
-        <v>0.005845194523436572</v>
+        <v>0.007144147385663391</v>
       </c>
       <c r="P6">
-        <v>0.005845194523436572</v>
+        <v>0.00714414738566339</v>
       </c>
       <c r="Q6">
-        <v>0.1477580321953333</v>
+        <v>0.1482461677984445</v>
       </c>
       <c r="R6">
-        <v>1.329822289758</v>
+        <v>1.334215510186</v>
       </c>
       <c r="S6">
-        <v>0.0001784569232025018</v>
+        <v>0.0002188131476504793</v>
       </c>
       <c r="T6">
-        <v>0.0001784569232025018</v>
+        <v>0.0002188131476504793</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.288371</v>
+        <v>0.2893236666666667</v>
       </c>
       <c r="H7">
-        <v>0.865113</v>
+        <v>0.867971</v>
       </c>
       <c r="I7">
-        <v>0.03053053623570109</v>
+        <v>0.03062830815746963</v>
       </c>
       <c r="J7">
-        <v>0.03053053623570109</v>
+        <v>0.03062830815746962</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>41.64642833333333</v>
+        <v>56.726097</v>
       </c>
       <c r="N7">
-        <v>124.939285</v>
+        <v>170.178291</v>
       </c>
       <c r="O7">
-        <v>0.4750914503990336</v>
+        <v>0.7909222509112964</v>
       </c>
       <c r="P7">
-        <v>0.4750914503990337</v>
+        <v>0.7909222509112963</v>
       </c>
       <c r="Q7">
-        <v>12.00962218491167</v>
+        <v>16.412202379729</v>
       </c>
       <c r="R7">
-        <v>108.086599664205</v>
+        <v>147.709821417561</v>
       </c>
       <c r="S7">
-        <v>0.01450479674167948</v>
+        <v>0.0242246104295107</v>
       </c>
       <c r="T7">
-        <v>0.01450479674167948</v>
+        <v>0.02422461042951069</v>
       </c>
     </row>
   </sheetData>
